--- a/QAA mapping biosciences.xlsx
+++ b/QAA mapping biosciences.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmamartin\Projects\curriculumTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADBF68BA-433A-4991-8E21-557A50009F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84092DB-BF78-4DBD-8AC4-9A09501D7F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30030" yWindow="1290" windowWidth="25500" windowHeight="13560" xr2:uid="{54203C98-39C5-464F-A939-8F581EAAF987}"/>
+    <workbookView xWindow="1575" yWindow="690" windowWidth="24960" windowHeight="14895" xr2:uid="{54203C98-39C5-464F-A939-8F581EAAF987}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1389,13 +1389,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88970BA-4786-4C2E-8886-6F3F32179A5E}">
   <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G154" sqref="G154"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="1" max="1" width="15.7109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" style="7" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" style="7" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" style="7" customWidth="1"/>
